--- a/src/predicciones/holt_winters/producto_20.xlsx
+++ b/src/predicciones/holt_winters/producto_20.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1430 +404,1430 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.71456388442983</v>
+        <v>2.006710861290394</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>1.556473370841406</v>
+        <v>2.006650082487741</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44933</v>
       </c>
       <c r="B4">
-        <v>1.012601935698061</v>
+        <v>1.006596530688702</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44935</v>
       </c>
       <c r="B5">
-        <v>1.211729764659759</v>
+        <v>1.006556871440623</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44937</v>
       </c>
       <c r="B6">
-        <v>1.327195121577775</v>
+        <v>1.006544140811283</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44939</v>
       </c>
       <c r="B7">
-        <v>1.260616613016452</v>
+        <v>1.006565000810745</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44940</v>
       </c>
       <c r="B8">
-        <v>1.011766476854716</v>
+        <v>1.013317306648255</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44941</v>
       </c>
       <c r="B9">
-        <v>1.718191209303468</v>
+        <v>2.013289853263614</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44944</v>
       </c>
       <c r="B10">
-        <v>1.560100695715044</v>
+        <v>2.013229074460961</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44945</v>
       </c>
       <c r="B11">
-        <v>1.016229260571698</v>
+        <v>1.013175522661923</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44956</v>
       </c>
       <c r="B12">
-        <v>1.215357089533397</v>
+        <v>1.013135863413843</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44958</v>
       </c>
       <c r="B13">
-        <v>1.330822446451413</v>
+        <v>1.013123132784504</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44961</v>
       </c>
       <c r="B14">
-        <v>1.26424393789009</v>
+        <v>1.013143992783966</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44962</v>
       </c>
       <c r="B15">
-        <v>1.015393801728353</v>
+        <v>1.019896298621476</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44963</v>
       </c>
       <c r="B16">
-        <v>1.721818534177106</v>
+        <v>2.019868845236835</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44966</v>
       </c>
       <c r="B17">
-        <v>1.563728020588682</v>
+        <v>2.019808066434181</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44969</v>
       </c>
       <c r="B18">
-        <v>1.019856585445336</v>
+        <v>1.019754514635143</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44971</v>
       </c>
       <c r="B19">
-        <v>1.218984414407035</v>
+        <v>1.019714855387064</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44972</v>
       </c>
       <c r="B20">
-        <v>1.33444977132505</v>
+        <v>1.019702124757724</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44975</v>
       </c>
       <c r="B21">
-        <v>1.267871262763728</v>
+        <v>1.019722984757186</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44978</v>
       </c>
       <c r="B22">
-        <v>1.019021126601991</v>
+        <v>1.026475290594696</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44986</v>
       </c>
       <c r="B23">
-        <v>1.725445859050743</v>
+        <v>2.026447837210055</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44991</v>
       </c>
       <c r="B24">
-        <v>1.567355345462319</v>
+        <v>2.026387058407402</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44994</v>
       </c>
       <c r="B25">
-        <v>1.023483910318974</v>
+        <v>1.026333506608363</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44996</v>
       </c>
       <c r="B26">
-        <v>1.222611739280672</v>
+        <v>1.026293847360284</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44997</v>
       </c>
       <c r="B27">
-        <v>1.338077096198688</v>
+        <v>1.026281116730945</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45008</v>
       </c>
       <c r="B28">
-        <v>1.271498587637366</v>
+        <v>1.026301976730406</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45010</v>
       </c>
       <c r="B29">
-        <v>1.022648451475629</v>
+        <v>1.033054282567917</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45013</v>
       </c>
       <c r="B30">
-        <v>1.729073183924381</v>
+        <v>2.033026829183276</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45021</v>
       </c>
       <c r="B31">
-        <v>1.570982670335957</v>
+        <v>2.032966050380622</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45022</v>
       </c>
       <c r="B32">
-        <v>1.027111235192611</v>
+        <v>1.032912498581584</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45027</v>
       </c>
       <c r="B33">
-        <v>1.22623906415431</v>
+        <v>1.032872839333505</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45028</v>
       </c>
       <c r="B34">
-        <v>1.341704421072326</v>
+        <v>1.032860108704165</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45029</v>
       </c>
       <c r="B35">
-        <v>1.275125912511003</v>
+        <v>1.032880968703627</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45030</v>
       </c>
       <c r="B36">
-        <v>1.026275776349267</v>
+        <v>1.039633274541137</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45032</v>
       </c>
       <c r="B37">
-        <v>1.732700508798019</v>
+        <v>2.039605821156496</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45033</v>
       </c>
       <c r="B38">
-        <v>1.574609995209595</v>
+        <v>2.039545042353843</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45039</v>
       </c>
       <c r="B39">
-        <v>1.030738560066249</v>
+        <v>1.039491490554804</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45042</v>
       </c>
       <c r="B40">
-        <v>1.229866389027948</v>
+        <v>1.039451831306725</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45044</v>
       </c>
       <c r="B41">
-        <v>1.345331745945964</v>
+        <v>1.039439100677386</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45049</v>
       </c>
       <c r="B42">
-        <v>1.278753237384641</v>
+        <v>1.039459960676848</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45056</v>
       </c>
       <c r="B43">
-        <v>1.029903101222904</v>
+        <v>1.046212266514358</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45064</v>
       </c>
       <c r="B44">
-        <v>1.736327833671657</v>
+        <v>2.046184813129717</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45072</v>
       </c>
       <c r="B45">
-        <v>1.578237320083232</v>
+        <v>2.046124034327063</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45073</v>
       </c>
       <c r="B46">
-        <v>1.034365884939887</v>
+        <v>1.046070482528025</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45074</v>
       </c>
       <c r="B47">
-        <v>1.233493713901586</v>
+        <v>1.046030823279946</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45075</v>
       </c>
       <c r="B48">
-        <v>1.348959070819601</v>
+        <v>1.046018092650606</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45076</v>
       </c>
       <c r="B49">
-        <v>1.282380562258279</v>
+        <v>1.046038952650068</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45079</v>
       </c>
       <c r="B50">
-        <v>1.033530426096542</v>
+        <v>1.052791258487578</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45087</v>
       </c>
       <c r="B51">
-        <v>1.739955158545294</v>
+        <v>2.052763805102937</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45088</v>
       </c>
       <c r="B52">
-        <v>1.58186464495687</v>
+        <v>2.052703026300284</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45089</v>
       </c>
       <c r="B53">
-        <v>1.037993209813525</v>
+        <v>1.052649474501245</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45092</v>
       </c>
       <c r="B54">
-        <v>1.237121038775223</v>
+        <v>1.052609815253166</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45094</v>
       </c>
       <c r="B55">
-        <v>1.352586395693239</v>
+        <v>1.052597084623827</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45096</v>
       </c>
       <c r="B56">
-        <v>1.286007887131916</v>
+        <v>1.052617944623288</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45097</v>
       </c>
       <c r="B57">
-        <v>1.03715775097018</v>
+        <v>1.059370250460798</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45099</v>
       </c>
       <c r="B58">
-        <v>1.743582483418932</v>
+        <v>2.059342797076158</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45107</v>
       </c>
       <c r="B59">
-        <v>1.585491969830508</v>
+        <v>2.059282018273504</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45111</v>
       </c>
       <c r="B60">
-        <v>1.041620534687163</v>
+        <v>1.059228466474466</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45112</v>
       </c>
       <c r="B61">
-        <v>1.240748363648861</v>
+        <v>1.059188807226387</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45115</v>
       </c>
       <c r="B62">
-        <v>1.356213720566877</v>
+        <v>1.059176076597047</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45117</v>
       </c>
       <c r="B63">
-        <v>1.289635212005554</v>
+        <v>1.059196936596509</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45118</v>
       </c>
       <c r="B64">
-        <v>1.040785075843818</v>
+        <v>1.065949242434019</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45120</v>
       </c>
       <c r="B65">
-        <v>1.74720980829257</v>
+        <v>2.065921789049378</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45125</v>
       </c>
       <c r="B66">
-        <v>1.589119294704146</v>
+        <v>2.065861010246725</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45127</v>
       </c>
       <c r="B67">
-        <v>1.0452478595608</v>
+        <v>1.065807458447686</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45128</v>
       </c>
       <c r="B68">
-        <v>1.244375688522499</v>
+        <v>1.065767799199607</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45132</v>
       </c>
       <c r="B69">
-        <v>1.359841045440515</v>
+        <v>1.065755068570268</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45136</v>
       </c>
       <c r="B70">
-        <v>1.293262536879192</v>
+        <v>1.065775928569729</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45137</v>
       </c>
       <c r="B71">
-        <v>1.044412400717455</v>
+        <v>1.07252823440724</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45140</v>
       </c>
       <c r="B72">
-        <v>1.750837133166207</v>
+        <v>2.072500781022598</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45143</v>
       </c>
       <c r="B73">
-        <v>1.592746619577783</v>
+        <v>2.072440002219945</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45146</v>
       </c>
       <c r="B74">
-        <v>1.048875184434438</v>
+        <v>1.072386450420907</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45147</v>
       </c>
       <c r="B75">
-        <v>1.248003013396136</v>
+        <v>1.072346791172828</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45148</v>
       </c>
       <c r="B76">
-        <v>1.363468370314152</v>
+        <v>1.072334060543488</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45155</v>
       </c>
       <c r="B77">
-        <v>1.29688986175283</v>
+        <v>1.07235492054295</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45162</v>
       </c>
       <c r="B78">
-        <v>1.048039725591093</v>
+        <v>1.07910722638046</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45167</v>
       </c>
       <c r="B79">
-        <v>1.754464458039845</v>
+        <v>2.079079772995819</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45170</v>
       </c>
       <c r="B80">
-        <v>1.596373944451421</v>
+        <v>2.079018994193166</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45182</v>
       </c>
       <c r="B81">
-        <v>1.052502509308076</v>
+        <v>1.078965442394127</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45191</v>
       </c>
       <c r="B82">
-        <v>1.251630338269774</v>
+        <v>1.078925783146048</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45192</v>
       </c>
       <c r="B83">
-        <v>1.36709569518779</v>
+        <v>1.078913052516709</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45193</v>
       </c>
       <c r="B84">
-        <v>1.300517186626468</v>
+        <v>1.07893391251617</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45195</v>
       </c>
       <c r="B85">
-        <v>1.051667050464731</v>
+        <v>1.08568621835368</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45202</v>
       </c>
       <c r="B86">
-        <v>1.758091782913483</v>
+        <v>2.08565876496904</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45203</v>
       </c>
       <c r="B87">
-        <v>1.600001269325059</v>
+        <v>2.085597986166386</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45207</v>
       </c>
       <c r="B88">
-        <v>1.056129834181713</v>
+        <v>1.085544434367348</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45209</v>
       </c>
       <c r="B89">
-        <v>1.255257663143412</v>
+        <v>1.085504775119269</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45211</v>
       </c>
       <c r="B90">
-        <v>1.370723020061428</v>
+        <v>1.085492044489929</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45212</v>
       </c>
       <c r="B91">
-        <v>1.304144511500105</v>
+        <v>1.085512904489391</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45216</v>
       </c>
       <c r="B92">
-        <v>1.055294375338368</v>
+        <v>1.092265210326901</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45219</v>
       </c>
       <c r="B93">
-        <v>1.761719107787121</v>
+        <v>2.09223775694226</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45221</v>
       </c>
       <c r="B94">
-        <v>1.603628594198697</v>
+        <v>2.092176978139607</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45223</v>
       </c>
       <c r="B95">
-        <v>1.059757159055351</v>
+        <v>1.092123426340568</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45224</v>
       </c>
       <c r="B96">
-        <v>1.25888498801705</v>
+        <v>1.092083767092489</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45225</v>
       </c>
       <c r="B97">
-        <v>1.374350344935065</v>
+        <v>1.09207103646315</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45233</v>
       </c>
       <c r="B98">
-        <v>1.307771836373743</v>
+        <v>1.092091896462611</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45235</v>
       </c>
       <c r="B99">
-        <v>1.058921700212006</v>
+        <v>1.098844202300121</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45242</v>
       </c>
       <c r="B100">
-        <v>1.765346432660758</v>
+        <v>2.098816748915481</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45246</v>
       </c>
       <c r="B101">
-        <v>1.607255919072334</v>
+        <v>2.098755970112827</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45247</v>
       </c>
       <c r="B102">
-        <v>1.063384483928989</v>
+        <v>1.098702418313789</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45248</v>
       </c>
       <c r="B103">
-        <v>1.262512312890687</v>
+        <v>1.09866275906571</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45250</v>
       </c>
       <c r="B104">
-        <v>1.377977669808703</v>
+        <v>1.09865002843637</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45252</v>
       </c>
       <c r="B105">
-        <v>1.311399161247381</v>
+        <v>1.098670888435832</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45254</v>
       </c>
       <c r="B106">
-        <v>1.062549025085644</v>
+        <v>1.105423194273342</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45256</v>
       </c>
       <c r="B107">
-        <v>1.768973757534396</v>
+        <v>2.105395740888701</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45262</v>
       </c>
       <c r="B108">
-        <v>1.610883243945972</v>
+        <v>2.105334962086047</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45264</v>
       </c>
       <c r="B109">
-        <v>1.067011808802627</v>
+        <v>1.105281410287009</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45273</v>
       </c>
       <c r="B110">
-        <v>1.266139637764325</v>
+        <v>1.10524175103893</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45276</v>
       </c>
       <c r="B111">
-        <v>1.381604994682341</v>
+        <v>1.105229020409591</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45279</v>
       </c>
       <c r="B112">
-        <v>1.315026486121018</v>
+        <v>1.105249880409052</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45280</v>
       </c>
       <c r="B113">
-        <v>1.066176349959282</v>
+        <v>1.112002186246562</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45283</v>
       </c>
       <c r="B114">
-        <v>1.772601082408034</v>
+        <v>2.111974732861921</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45286</v>
       </c>
       <c r="B115">
-        <v>1.61451056881961</v>
+        <v>2.111913954059268</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45296</v>
       </c>
       <c r="B116">
-        <v>1.070639133676264</v>
+        <v>1.11186040226023</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45299</v>
       </c>
       <c r="B117">
-        <v>1.269766962637963</v>
+        <v>1.111820743012151</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45300</v>
       </c>
       <c r="B118">
-        <v>1.385232319555979</v>
+        <v>1.111808012382811</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45304</v>
       </c>
       <c r="B119">
-        <v>1.318653810994656</v>
+        <v>1.111828872382273</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45307</v>
       </c>
       <c r="B120">
-        <v>1.069803674832919</v>
+        <v>1.118581178219783</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45308</v>
       </c>
       <c r="B121">
-        <v>1.776228407281671</v>
+        <v>2.118553724835142</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45310</v>
       </c>
       <c r="B122">
-        <v>1.618137893693247</v>
+        <v>2.118492946032489</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45311</v>
       </c>
       <c r="B123">
-        <v>1.074266458549902</v>
+        <v>1.11843939423345</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45313</v>
       </c>
       <c r="B124">
-        <v>1.2733942875116</v>
+        <v>1.118399734985371</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45318</v>
       </c>
       <c r="B125">
-        <v>1.388859644429616</v>
+        <v>1.118387004356032</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45320</v>
       </c>
       <c r="B126">
-        <v>1.322281135868294</v>
+        <v>1.118407864355493</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45322</v>
       </c>
       <c r="B127">
-        <v>1.073430999706557</v>
+        <v>1.125160170193003</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45331</v>
       </c>
       <c r="B128">
-        <v>1.779855732155309</v>
+        <v>2.125132716808363</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45335</v>
       </c>
       <c r="B129">
-        <v>1.621765218566885</v>
+        <v>2.125071938005709</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45338</v>
       </c>
       <c r="B130">
-        <v>1.07789378342354</v>
+        <v>1.125018386206671</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45339</v>
       </c>
       <c r="B131">
-        <v>1.277021612385238</v>
+        <v>1.124978726958592</v>
       </c>
       <c r="C131">
         <v>1</v>
